--- a/data_month/zb/服务业生产指数/服务业生产指数.xlsx
+++ b/data_month/zb/服务业生产指数/服务业生产指数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,336 +448,336 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.95119330558154</v>
+        <v>8.24641672924648</v>
       </c>
       <c r="C2" t="n">
-        <v>8.227189319887531</v>
+        <v>8.24641672924648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.76016838116631</v>
+        <v>8.27670828880656</v>
       </c>
       <c r="C3" t="n">
-        <v>8.18473287091286</v>
+        <v>8.25651391576651</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.91234199223232</v>
+        <v>8.06298895452511</v>
       </c>
       <c r="C4" t="n">
-        <v>8.16203363102281</v>
+        <v>8.208132675456159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.24641672924648</v>
+        <v>8.0505028270577</v>
       </c>
       <c r="C5" t="n">
-        <v>8.24641672924648</v>
+        <v>8.176606705776461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.27670828880656</v>
+        <v>8.63045380447098</v>
       </c>
       <c r="C6" t="n">
-        <v>8.25651391576651</v>
+        <v>8.252247888892221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.06298895452511</v>
+        <v>8.255315868958631</v>
       </c>
       <c r="C7" t="n">
-        <v>8.208132675456159</v>
+        <v>8.252686171758841</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.0505028270577</v>
+        <v>8.34414340032923</v>
       </c>
       <c r="C8" t="n">
-        <v>8.176606705776461</v>
+        <v>8.264118325330131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.63045380447098</v>
+        <v>8.28127215624615</v>
       </c>
       <c r="C9" t="n">
-        <v>8.252247888892221</v>
+        <v>8.257855543699289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.255315868958631</v>
+        <v>7.95119330558154</v>
       </c>
       <c r="C10" t="n">
-        <v>8.252686171758841</v>
+        <v>8.227189319887531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.34414340032923</v>
+        <v>7.76016838116631</v>
       </c>
       <c r="C11" t="n">
-        <v>8.264118325330131</v>
+        <v>8.18473287091286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.28127215624615</v>
+        <v>7.91234199223232</v>
       </c>
       <c r="C12" t="n">
-        <v>8.257855543699289</v>
+        <v>8.16203363102281</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.1932394622197</v>
+        <v>7.95118911520607</v>
       </c>
       <c r="C13" t="n">
-        <v>7.77540664911443</v>
+        <v>7.95118911520607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.2</v>
+        <v>8.316649100842049</v>
       </c>
       <c r="C14" t="n">
-        <v>7.7</v>
+        <v>8.07300911041807</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.3</v>
+        <v>7.98015495302308</v>
       </c>
       <c r="C15" t="n">
-        <v>7.7</v>
+        <v>8.049795571069319</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.95118911520607</v>
+        <v>8.07712382078844</v>
       </c>
       <c r="C16" t="n">
-        <v>7.95118911520607</v>
+        <v>8.055261221013151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.316649100842049</v>
+        <v>7.95693867082225</v>
       </c>
       <c r="C17" t="n">
-        <v>8.07300911041807</v>
+        <v>8.038874129314671</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.98015495302308</v>
+        <v>7.56013807161972</v>
       </c>
       <c r="C18" t="n">
-        <v>8.049795571069319</v>
+        <v>7.97048326392968</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.07712382078844</v>
+        <v>7.45036579394636</v>
       </c>
       <c r="C19" t="n">
-        <v>8.055261221013151</v>
+        <v>7.90546858018176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.95693867082225</v>
+        <v>7.31707838747053</v>
       </c>
       <c r="C20" t="n">
-        <v>8.038874129314671</v>
+        <v>7.84009189210274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.56013807161972</v>
+        <v>7.1932394622197</v>
       </c>
       <c r="C21" t="n">
-        <v>7.97048326392968</v>
+        <v>7.77540664911443</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.45036579394636</v>
+        <v>7.2</v>
       </c>
       <c r="C22" t="n">
-        <v>7.90546858018176</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.31707838747053</v>
+        <v>7.3</v>
       </c>
       <c r="C23" t="n">
-        <v>7.84009189210274</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="C25" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C26" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
         <v>7.3</v>
@@ -786,374 +786,374 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="C28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="C29" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C30" t="n">
         <v>7</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="C31" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="C32" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>7.4</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>-1.6</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>-9.1</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.7</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.7</v>
+        <v>-4.5</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
       <c r="C38" t="n">
-        <v>-13</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-9.1</v>
+        <v>2.3</v>
       </c>
       <c r="C39" t="n">
-        <v>-11.7</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-4.5</v>
+        <v>3.5</v>
       </c>
       <c r="C40" t="n">
-        <v>-9.9</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.7</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="C42" t="n">
-        <v>-6.1</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.5</v>
+        <v>7.4</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.7</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>-3.6</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.4</v>
+        <v>7.7</v>
       </c>
       <c r="C45" t="n">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>3.8</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>15.1</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.1</v>
+        <v>25.3</v>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>18.2</v>
       </c>
       <c r="C48" t="n">
-        <v>13.1</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>12.5</v>
+      </c>
       <c r="C49" t="n">
-        <v>31.1</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25.3</v>
+        <v>10.9</v>
       </c>
       <c r="C50" t="n">
-        <v>29.2</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>18.2</v>
+        <v>7.8</v>
       </c>
       <c r="C51" t="n">
-        <v>26.4</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12.5</v>
+        <v>4.8</v>
       </c>
       <c r="C52" t="n">
-        <v>23.6</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10.9</v>
+        <v>5.2</v>
       </c>
       <c r="C53" t="n">
-        <v>21.5</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7.8</v>
+        <v>3.8</v>
       </c>
       <c r="C54" t="n">
-        <v>19.6</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="C55" t="n">
-        <v>17.7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>16.3</v>
+        <v>13.1</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/服务业生产指数/服务业生产指数.xlsx
+++ b/data_month/zb/服务业生产指数/服务业生产指数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,336 +448,336 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.24641672924648</v>
+        <v>7.95119330558154</v>
       </c>
       <c r="C2" t="n">
-        <v>8.24641672924648</v>
+        <v>8.227189319887531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.27670828880656</v>
+        <v>7.76016838116631</v>
       </c>
       <c r="C3" t="n">
-        <v>8.25651391576651</v>
+        <v>8.18473287091286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.06298895452511</v>
+        <v>7.91234199223232</v>
       </c>
       <c r="C4" t="n">
-        <v>8.208132675456159</v>
+        <v>8.16203363102281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.0505028270577</v>
+        <v>8.24641672924648</v>
       </c>
       <c r="C5" t="n">
-        <v>8.176606705776461</v>
+        <v>8.24641672924648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.63045380447098</v>
+        <v>8.27670828880656</v>
       </c>
       <c r="C6" t="n">
-        <v>8.252247888892221</v>
+        <v>8.25651391576651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.255315868958631</v>
+        <v>8.06298895452511</v>
       </c>
       <c r="C7" t="n">
-        <v>8.252686171758841</v>
+        <v>8.208132675456159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.34414340032923</v>
+        <v>8.0505028270577</v>
       </c>
       <c r="C8" t="n">
-        <v>8.264118325330131</v>
+        <v>8.176606705776461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.28127215624615</v>
+        <v>8.63045380447098</v>
       </c>
       <c r="C9" t="n">
-        <v>8.257855543699289</v>
+        <v>8.252247888892221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.95119330558154</v>
+        <v>8.255315868958631</v>
       </c>
       <c r="C10" t="n">
-        <v>8.227189319887531</v>
+        <v>8.252686171758841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.76016838116631</v>
+        <v>8.34414340032923</v>
       </c>
       <c r="C11" t="n">
-        <v>8.18473287091286</v>
+        <v>8.264118325330131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.91234199223232</v>
+        <v>8.28127215624615</v>
       </c>
       <c r="C12" t="n">
-        <v>8.16203363102281</v>
+        <v>8.257855543699289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.95118911520607</v>
+        <v>7.1932394622197</v>
       </c>
       <c r="C13" t="n">
-        <v>7.95118911520607</v>
+        <v>7.77540664911443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.316649100842049</v>
+        <v>7.2</v>
       </c>
       <c r="C14" t="n">
-        <v>8.07300911041807</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.98015495302308</v>
+        <v>7.3</v>
       </c>
       <c r="C15" t="n">
-        <v>8.049795571069319</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.07712382078844</v>
+        <v>7.95118911520607</v>
       </c>
       <c r="C16" t="n">
-        <v>8.055261221013151</v>
+        <v>7.95118911520607</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.95693867082225</v>
+        <v>8.316649100842049</v>
       </c>
       <c r="C17" t="n">
-        <v>8.038874129314671</v>
+        <v>8.07300911041807</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.56013807161972</v>
+        <v>7.98015495302308</v>
       </c>
       <c r="C18" t="n">
-        <v>7.97048326392968</v>
+        <v>8.049795571069319</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.45036579394636</v>
+        <v>8.07712382078844</v>
       </c>
       <c r="C19" t="n">
-        <v>7.90546858018176</v>
+        <v>8.055261221013151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.31707838747053</v>
+        <v>7.95693867082225</v>
       </c>
       <c r="C20" t="n">
-        <v>7.84009189210274</v>
+        <v>8.038874129314671</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.1932394622197</v>
+        <v>7.56013807161972</v>
       </c>
       <c r="C21" t="n">
-        <v>7.77540664911443</v>
+        <v>7.97048326392968</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.2</v>
+        <v>7.45036579394636</v>
       </c>
       <c r="C22" t="n">
-        <v>7.7</v>
+        <v>7.90546858018176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.3</v>
+        <v>7.31707838747053</v>
       </c>
       <c r="C23" t="n">
-        <v>7.7</v>
+        <v>7.84009189210274</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="C24" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="C25" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="C26" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="C27" t="n">
         <v>7.3</v>
@@ -786,374 +786,578 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="C28" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="C29" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="C33" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7.4</v>
+      </c>
       <c r="C35" t="n">
-        <v>-13</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-9.1</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.7</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-4.5</v>
+        <v>7.7</v>
       </c>
       <c r="C37" t="n">
-        <v>-9.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>-7.7</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.3</v>
+        <v>-9.1</v>
       </c>
       <c r="C39" t="n">
-        <v>-6.1</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="C40" t="n">
-        <v>-4.7</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.6</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="C42" t="n">
-        <v>-2.6</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.4</v>
+        <v>3.5</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.6</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.7</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.7</v>
+        <v>5.4</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3.8</v>
+      </c>
       <c r="C46" t="n">
-        <v>31.1</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25.3</v>
+        <v>3.1</v>
       </c>
       <c r="C47" t="n">
-        <v>29.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>18.2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>26.4</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>12.5</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>23.6</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>10.9</v>
+        <v>25.3</v>
       </c>
       <c r="C50" t="n">
-        <v>21.5</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.8</v>
+        <v>18.2</v>
       </c>
       <c r="C51" t="n">
-        <v>19.6</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4.8</v>
+        <v>12.5</v>
       </c>
       <c r="C52" t="n">
-        <v>17.7</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5.2</v>
+        <v>10.9</v>
       </c>
       <c r="C53" t="n">
-        <v>16.3</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="C54" t="n">
-        <v>15.1</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="C55" t="n">
-        <v>14</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="C56" t="n">
-        <v>13.1</v>
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>
